--- a/Input Documents/CRS/Review/PO_SB_CRS_ML_Review.xlsx
+++ b/Input Documents/CRS/Review/PO_SB_CRS_ML_Review.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mentorship\SAG\WEB_SWProcess_Documents\Templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="9384"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
   <si>
     <t>Entry Date</t>
   </si>
@@ -46,6 +41,69 @@
   </si>
   <si>
     <t>Proposed Solution</t>
+  </si>
+  <si>
+    <t>CR_REV_0001</t>
+  </si>
+  <si>
+    <t>CR_REV_0002</t>
+  </si>
+  <si>
+    <t>CR_REV_0003</t>
+  </si>
+  <si>
+    <t>CR_REV_0004</t>
+  </si>
+  <si>
+    <t>CR_REV_0005</t>
+  </si>
+  <si>
+    <t>Salma Saeed</t>
+  </si>
+  <si>
+    <t>V1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/Document History: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2/System Context: </t>
+  </si>
+  <si>
+    <t>3/CRS Requirements:Req_1</t>
+  </si>
+  <si>
+    <t>3/CRS Requirements:Req_2</t>
+  </si>
+  <si>
+    <t>3/CRS Requirements:Req_4</t>
+  </si>
+  <si>
+    <t>All edits shall be in document history</t>
+  </si>
+  <si>
+    <t xml:space="preserve">format of System Context </t>
+  </si>
+  <si>
+    <t>The way of writing is not formal</t>
+  </si>
+  <si>
+    <t>this Requirement is more software</t>
+  </si>
+  <si>
+    <t>this Requirement is not part of real time execution</t>
+  </si>
+  <si>
+    <t>Add edits of System Context</t>
+  </si>
+  <si>
+    <t>format shall be bigger and more organized</t>
+  </si>
+  <si>
+    <t>Description must be more descriptive and formal</t>
+  </si>
+  <si>
+    <t>shall be removed</t>
   </si>
 </sst>
 </file>
@@ -156,7 +214,76 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF57BB8A"/>
+          <bgColor rgb="FF57BB8A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF57BB8A"/>
+          <bgColor rgb="FF57BB8A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF57BB8A"/>
+          <bgColor rgb="FF57BB8A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -419,8 +546,8 @@
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -460,61 +587,131 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="A2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3">
+        <v>44603</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="H2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3">
+        <v>44603</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="H3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="A4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3">
+        <v>44603</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="H4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="A5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3">
+        <v>44603</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="A6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3">
+        <v>44603</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H6" s="4" t="s">
         <v>6</v>
       </c>
@@ -558,12 +755,12 @@
     <row r="10" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="A2:H9">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="9" priority="3">
       <formula>$H2 = "Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:H9">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="8" priority="4">
       <formula>$H2= "Open"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Input Documents/CRS/Review/PO_SB_CRS_ML_Review.xlsx
+++ b/Input Documents/CRS/Review/PO_SB_CRS_ML_Review.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
   <si>
     <t>Entry Date</t>
   </si>
@@ -104,6 +104,42 @@
   </si>
   <si>
     <t>shall be removed</t>
+  </si>
+  <si>
+    <t>CR_REV_0006</t>
+  </si>
+  <si>
+    <t>19/11</t>
+  </si>
+  <si>
+    <t>Document Status: Status</t>
+  </si>
+  <si>
+    <t>wrong status</t>
+  </si>
+  <si>
+    <t>shall be proposed</t>
+  </si>
+  <si>
+    <t>CR_REV_0007</t>
+  </si>
+  <si>
+    <t>edit system context</t>
+  </si>
+  <si>
+    <t>shall have two blocks :bump detection class , ECU and edit input and output signals</t>
+  </si>
+  <si>
+    <t>CR_REV_0008</t>
+  </si>
+  <si>
+    <t>3/CRS Requirements</t>
+  </si>
+  <si>
+    <t>Edit CRS Requirements</t>
+  </si>
+  <si>
+    <t>CRS Requirements shall have more detials</t>
   </si>
 </sst>
 </file>
@@ -193,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -210,11 +246,60 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF57BB8A"/>
+          <bgColor rgb="FF57BB8A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF57BB8A"/>
+          <bgColor rgb="FF57BB8A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -547,7 +632,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -717,37 +802,79 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="A7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="H7" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="A8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="H8" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="A9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="H9" s="4" t="s">
         <v>6</v>
       </c>
@@ -755,12 +882,12 @@
     <row r="10" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="A2:H9">
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="13" priority="3">
       <formula>$H2 = "Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:H9">
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="12" priority="4">
       <formula>$H2= "Open"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Input Documents/CRS/Review/PO_SB_CRS_ML_Review.xlsx
+++ b/Input Documents/CRS/Review/PO_SB_CRS_ML_Review.xlsx
@@ -34,9 +34,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Open</t>
-  </si>
-  <si>
     <t>DocType_REV_ID</t>
   </si>
   <si>
@@ -140,6 +137,9 @@
   </si>
   <si>
     <t>CRS Requirements shall have more detials</t>
+  </si>
+  <si>
+    <t>Closed</t>
   </si>
 </sst>
 </file>
@@ -253,145 +253,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <b/>
@@ -631,8 +493,8 @@
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -647,7 +509,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -665,7 +527,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -673,221 +535,221 @@
     </row>
     <row r="2" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3">
         <v>44603</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3">
         <v>44603</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="E3" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3">
         <v>44603</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="E4" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3">
         <v>44603</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="E5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3">
         <v>44603</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="E6" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>34</v>
-      </c>
       <c r="H7" s="4" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="H8" s="4" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="H9" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="A2:H9">
-    <cfRule type="expression" dxfId="13" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>$H2 = "Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:H9">
-    <cfRule type="expression" dxfId="12" priority="4">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>$H2= "Open"</formula>
     </cfRule>
   </conditionalFormatting>
